--- a/emaua/src/main/java/com/emaua/testdata/EmauaTestData.xlsx
+++ b/emaua/src/main/java/com/emaua/testdata/EmauaTestData.xlsx
@@ -4,20 +4,23 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="345" windowWidth="14805" windowHeight="7770" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Institutions" sheetId="1" r:id="rId1"/>
-    <sheet name="Teachers" sheetId="2" r:id="rId2"/>
-    <sheet name="Courses" sheetId="3" r:id="rId3"/>
-    <sheet name="Contact" sheetId="4" r:id="rId4"/>
+    <sheet name="InstitutionsWarning" sheetId="1" r:id="rId1"/>
+    <sheet name="Institutions" sheetId="5" r:id="rId2"/>
+    <sheet name="TeachersWarning" sheetId="2" r:id="rId3"/>
+    <sheet name="TeachersAdd" sheetId="6" r:id="rId4"/>
+    <sheet name="TeachersEdit" sheetId="7" r:id="rId5"/>
+    <sheet name="Courses" sheetId="3" r:id="rId6"/>
+    <sheet name="Contact" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="51">
   <si>
     <t>Name</t>
   </si>
@@ -59,6 +62,118 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>description data provider</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>institution</t>
+  </si>
+  <si>
+    <t>Test name</t>
+  </si>
+  <si>
+    <t>Test title</t>
+  </si>
+  <si>
+    <t>Test Desc</t>
+  </si>
+  <si>
+    <t>C:\BusinessCard.GIF</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Institution name is required.</t>
+  </si>
+  <si>
+    <t>Institution image is required.</t>
+  </si>
+  <si>
+    <t>Institution description is required.</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>Institution name is too short.</t>
+  </si>
+  <si>
+    <t>aaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa</t>
+  </si>
+  <si>
+    <t>Institution name is too long.</t>
+  </si>
+  <si>
+    <t>klkzzzzzzzzzzz</t>
+  </si>
+  <si>
+    <t>Institution description is too short.</t>
+  </si>
+  <si>
+    <t>Uploaded file is an invalid image.</t>
+  </si>
+  <si>
+    <t>C:\new 12.html</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teacher image is required.
+</t>
+  </si>
+  <si>
+    <t>Teacher name is required.</t>
+  </si>
+  <si>
+    <t>Teacher title is required.</t>
+  </si>
+  <si>
+    <t>Teacher institution is required.</t>
+  </si>
+  <si>
+    <t>Teacher description is required.</t>
+  </si>
+  <si>
+    <t>Teacher name is too short.</t>
+  </si>
+  <si>
+    <t>Teacher title is too short.</t>
+  </si>
+  <si>
+    <t>Teacher description is too short.</t>
+  </si>
+  <si>
+    <t>Sorry, image upload max size is 2MB.</t>
+  </si>
+  <si>
+    <t>Teacher name is too long.</t>
+  </si>
+  <si>
+    <t>Teacher title is too long.</t>
+  </si>
+  <si>
+    <t>lfffgfgfgfgfgdgfdfgdgdgfdgddgdgfgfdgdgdfgdgdfgfgdfgfgfdgdgdfgdfgdfgdgfdgdfgfdgdfgdgdgdgdgdfgdgdgdgdgdgdlfffgfgfgfgfgdgfdfgdgdgfdgddgdgfgfdgdgdfgdgdfgfgdfgfgfdgdgdfgdfgdfgdgfdgdfgfdgdfgdgdgdgdgdfgdgdgdgdgdgdlfffgfgfgfgfgdgfdfgdgdgfdgddgdgfgfdgdgdfgdgdfgfgdfgfgfdgdgdfgdfgdfgdgfdgdfgfdgdfgdgdgdgdgdfgdgdgdgdgdgdlfffgfgfgfgfgdgfdfgdgdgfdgddgdgfgfdgdgdfgdgdfgfgdfgfgfdgdgdfgdfgdfgdgfdgdfgfdgdfgdgdgdgdgdfgdgdgdgdgdgdlfffgfgfgfgfgdgfdfgdgdgfdgddgdgfgfdgdgdfgdgdfgfgdfgfgfdgdgdfgdfgdfgdgfdgdfgfdgdfgdgdgdgdgdfgdgdgdgdgdgdlfffgfgfgfgfgdgfdfgdgdgfdgddgdgfgfdgdgdfgdgdfgfgdfgfgfdgdgdfgdfgdfgdgfdgdfgfdgdfgdgdgdgdgdfgdgdgdgdgdgdlfffgfgfgfgfgdgfdfgdgdgfdgddgdgfgfdgdgdfgdgdfgfgdfgfgfdgdgdfgdfgdfgdgfdgdfgfdgdfgdgdgdgdgdfgdgdgdgdgdgdlfffgfgfgfgfgdgfdfgdgdgfdgddgdgfgfdgdgdfgdgdfgfgdfgfgfdgdgdfgdfgdfgdgfdgdfgfdgdfgdgdgdgdgdfgdgdgdgdgdgdlfffgfgfgfgfgdgfdfgdgdgfdgddgdgfgfdgdgdfgdgdfgfgdfgfgfdgdgdfgdfgdfgdgfdgdfgfdgdfgdgdgdgdgdfgdgdgdgdgdgdlfffgfgfgfgfgdgfdfgdgdgfdgddgdgfgflfffgfgfgfgfgdgfdfgdgdgfdgddgdgfgfdgdgd</t>
+  </si>
+  <si>
+    <t>Teacher description is too long.</t>
   </si>
 </sst>
 </file>
@@ -82,7 +197,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -92,6 +207,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -109,10 +230,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -443,29 +568,412 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F2" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F11" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F12" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F13" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -479,11 +987,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
